--- a/data/마사회.xlsx
+++ b/data/마사회.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\isbr-auto-questionnaire\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A312D1B-87DC-4775-B367-1D2104793301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C702C4B-371B-49A1-A117-5D1F9EE13087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1312,7 +1312,7 @@
   <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
